--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABD/15/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.106699999999993</v>
+        <v>6.073799999999991</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.29379999999997</v>
+        <v>-20.43539999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.676899999999997</v>
+        <v>5.567999999999996</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.89400000000002</v>
+        <v>-23.05410000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.11890000000002</v>
+        <v>-22.22830000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.757000000000001</v>
+        <v>-7.699699999999996</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
